--- a/biology/Zoologie/Chien_blanc/Chien_blanc.xlsx
+++ b/biology/Zoologie/Chien_blanc/Chien_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chien blanc est un roman de Romain Gary, écrit en 1969 et publié le 20 mars 1970 aux éditions Gallimard. Il a été adapté au cinéma dans les films Dressé pour tuer réalisé par Samuel Fuller en 1982 et Chien blanc réalisé par Anaïs Barbeau-Lavalette en 2022. 
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « C’était un chien gris avec une verrue comme un grain de beauté sur le côté droit du museau et du poil roussi autour de la truffe, ce qui le faisait ressembler au fumeur invétéré sur l’enseigne du Chien-qui-fume, un bar-tabac à Nice, non loin du lycée de mon enfance. »
@@ -547,7 +561,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien blanc est un roman en grande partie inspiré de la vie de Romain Gary à la fin des années 1960. Ce livre est l'occasion pour l'auteur de dénoncer tous les racismes et toutes les hypocrisies. Racisme des blancs envers les noirs, bien sûr, mais aussi racisme en retour des noirs et hypocrisie des blancs (notamment dans le milieu du cinéma) qui ont parfois des raisons bien peu désintéressées de s'associer à la lutte pour la déségrégation. Sur le fond coloré des événements traumatiques de l'époque (la guerre du Viêt Nam et les événements de mai 68 à Paris), le roman donne l'occasion à Romain Gary de dévoiler un profond humanisme et d'écrire un vibrant plaidoyer contre la bêtise.
 </t>
@@ -578,7 +594,9 @@
           <t>Adaptations au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire a inspiré à Samuel Fuller la réalisation du film purement fictionnel, Dressé pour tuer sorti en 1982.
 Chien blanc a aussi été adapté au Québec par Anaïs Barbeau-Lavalette, en 2022, sous ce titre.
@@ -610,7 +628,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Éditions Gallimard, 1970  (ISBN 9782070270224).
 Éditions Gallimard, coll. « Folio », no 50, 1972  (ISBN 9782070360505), 224 p.
